--- a/static/exel_files/6. product_group.xlsx
+++ b/static/exel_files/6. product_group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IvanJ\Desktop\Branislav\Angular workspace\elkomerc-baza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\DjangoRepos\Elkomerc\static\exel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21AC90A-D374-41A4-9FE3-39D4392808A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59A7132-22BE-4909-8FB8-CE70ABF95B73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -218,6 +218,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -549,15 +550,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -573,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -581,7 +582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,7 +590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -597,7 +598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -605,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -613,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -621,7 +622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -629,7 +630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -637,7 +638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -645,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -653,7 +654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -661,7 +662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -669,7 +670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -677,7 +678,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -685,7 +686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -693,7 +694,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -701,7 +702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -709,7 +710,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -717,7 +718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -725,7 +726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -733,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -741,7 +742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -749,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -757,7 +758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -765,7 +766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -773,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -781,7 +782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -789,7 +790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -797,7 +798,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -805,7 +806,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -813,7 +814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -821,7 +822,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -829,7 +830,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -837,7 +838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -845,7 +846,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -853,7 +854,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -861,7 +862,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -869,7 +870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -877,7 +878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -885,7 +886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -893,7 +894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -901,7 +902,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -909,7 +910,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -917,7 +918,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -925,7 +926,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -933,7 +934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -941,7 +942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -949,7 +950,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -957,7 +958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -965,7 +966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -973,7 +974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -981,7 +982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -989,7 +990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -997,7 +998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
